--- a/data/out/wiki/men/uefa/wc/standings_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/standings_wc_uefa_men.xlsx
@@ -517,7 +517,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,7 +559,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -601,7 +601,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -691,7 +691,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -743,7 +743,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -847,7 +847,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -893,7 +893,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Denmark', 'West Germany']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -935,7 +935,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1053,7 +1053,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1153,7 +1153,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1241,7 +1241,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1283,7 +1283,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Germany', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1535,7 +1535,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1869,7 +1869,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1917,7 +1917,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2005,7 +2005,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2199,7 +2199,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2303,7 +2303,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2475,7 +2475,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2659,7 +2659,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2763,7 +2763,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2987,7 +2987,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3181,7 +3181,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3321,7 +3321,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3457,7 +3457,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3499,7 +3499,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3641,7 +3641,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3687,7 +3687,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3729,7 +3729,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3865,7 +3865,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4001,7 +4001,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4091,7 +4091,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4189,7 +4189,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4231,7 +4231,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4273,7 +4273,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4555,7 +4555,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4603,7 +4603,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4649,7 +4649,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4691,7 +4691,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4833,7 +4833,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4983,7 +4983,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5031,7 +5031,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5125,7 +5125,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5171,7 +5171,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5213,7 +5213,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5261,7 +5261,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5313,7 +5313,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5417,7 +5417,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5553,7 +5553,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
